--- a/Assets/Editor/Data/SpeechData.xlsx
+++ b/Assets/Editor/Data/SpeechData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="#1 인트로" sheetId="1" r:id="rId1"/>
@@ -10176,7 +10176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -18391,7 +18391,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -18756,7 +18758,7 @@
         <v>941</v>
       </c>
       <c r="K14" s="1">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="L14" s="1">
         <v>35</v>
@@ -18789,7 +18791,7 @@
         <v>942</v>
       </c>
       <c r="K15" s="1">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="L15" s="1">
         <v>36</v>
